--- a/Code_Lines.xlsx
+++ b/Code_Lines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacky/Documents/100+ codes project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jacky/Desktop/100-codes-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -56,10 +56,10 @@
     <t>Tricky_Doubles</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Feb/6/2016</t>
+  </si>
+  <si>
+    <t>A_spuare_of_spuares</t>
   </si>
 </sst>
 </file>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -463,12 +463,12 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <f>SUM(B2:B5)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Code_Lines.xlsx
+++ b/Code_Lines.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>A_spuare_of_spuares</t>
+  </si>
+  <si>
+    <t>List_Filtering</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -472,6 +475,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
